--- a/introductoryExamples/analysis/3-2-w8--trust.xlsx
+++ b/introductoryExamples/analysis/3-2-w8--trust.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="43">
   <si>
     <t>Time</t>
   </si>
@@ -26,9 +26,18 @@
     <t>#Rep</t>
   </si>
   <si>
+    <t>fTi</t>
+  </si>
+  <si>
+    <t>fTa</t>
+  </si>
+  <si>
     <t>log4j versions2.0-beta through 2.17.0 are vulnerable</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>security fixes are 2.3.2 and 2.12.4</t>
   </si>
   <si>
@@ -113,7 +122,19 @@
     <t>T</t>
   </si>
   <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>-1.00</t>
+  </si>
+  <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.57</t>
   </si>
   <si>
     <t>c</t>
@@ -422,24 +443,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="104.39453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="1.8984375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="1.8984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="3.40234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.40234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="3.40234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.40234375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="3.40234375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="3.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="3.40234375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="4.40234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="2.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="111.39453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="1.9296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="1.9296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.03125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="4.4296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="5.03125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="4.4296875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="5.03125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="4.4296875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="5.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -455,51 +478,59 @@
       <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="F1" s="0"/>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
       <c r="G1" t="s" s="12">
         <v>33</v>
       </c>
       <c r="H1" s="0"/>
       <c r="I1" t="s" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J1" s="0"/>
       <c r="K1" t="s" s="12">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0"/>
+      <c r="M1" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="N1" s="0"/>
     </row>
     <row r="2">
       <c r="A2" s="0"/>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
-      <c r="E2" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>32</v>
-      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
       <c r="G2" t="s" s="13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s" s="13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s" s="13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="M2" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +538,7 @@
         <v>-1.0</v>
       </c>
       <c r="B3" t="s" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>0.0</v>
@@ -515,29 +546,35 @@
       <c r="D3" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E3" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F3" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G3" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I3" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J3" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K3" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="L3" t="n" s="5">
-        <v>1.0</v>
+      <c r="E3" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s" s="5">
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +582,7 @@
         <v>-1.0</v>
       </c>
       <c r="B4" t="s" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>0.0</v>
@@ -553,29 +590,35 @@
       <c r="D4" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E4" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F4" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G4" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H4" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I4" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J4" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K4" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="L4" t="n" s="5">
-        <v>1.0</v>
+      <c r="E4" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s" s="5">
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -583,7 +626,7 @@
         <v>-1.0</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>1.0</v>
@@ -591,29 +634,35 @@
       <c r="D5" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E5" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F5" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I5" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J5" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K5" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="L5" t="n" s="5">
-        <v>1.0</v>
+      <c r="E5" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s" s="5">
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +670,7 @@
         <v>1.0</v>
       </c>
       <c r="B6" t="s" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>3.0</v>
@@ -629,29 +678,35 @@
       <c r="D6" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E6" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F6" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="G6" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="I6" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J6" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K6" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n" s="5">
-        <v>0.5</v>
+      <c r="E6" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +714,7 @@
         <v>1.0</v>
       </c>
       <c r="B7" t="s" s="10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>7.0</v>
@@ -667,29 +722,35 @@
       <c r="D7" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E7" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F7" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G7" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H7" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I7" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J7" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K7" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L7" t="n" s="5">
-        <v>1.0</v>
+      <c r="E7" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s" s="5">
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -697,7 +758,7 @@
         <v>3.0</v>
       </c>
       <c r="B8" t="s" s="11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>1.0</v>
@@ -705,29 +766,35 @@
       <c r="D8" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E8" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F8" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G8" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H8" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I8" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J8" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K8" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L8" t="n" s="5">
-        <v>1.0</v>
+      <c r="E8" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s" s="5">
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -735,7 +802,7 @@
         <v>5.0</v>
       </c>
       <c r="B9" t="s" s="10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>2.0</v>
@@ -743,29 +810,35 @@
       <c r="D9" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E9" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F9" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="G9" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H9" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="I9" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J9" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K9" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L9" t="n" s="5">
-        <v>0.5</v>
+      <c r="E9" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -773,7 +846,7 @@
         <v>7.0</v>
       </c>
       <c r="B10" t="s" s="11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>0.0</v>
@@ -781,29 +854,35 @@
       <c r="D10" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E10" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F10" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G10" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H10" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I10" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J10" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K10" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L10" t="n" s="5">
-        <v>0.5</v>
+      <c r="E10" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -811,7 +890,7 @@
         <v>7.0</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>0.0</v>
@@ -819,29 +898,35 @@
       <c r="D11" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E11" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F11" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G11" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H11" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I11" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J11" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K11" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L11" t="n" s="5">
-        <v>0.5</v>
+      <c r="E11" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -849,7 +934,7 @@
         <v>7.0</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>1.0</v>
@@ -857,29 +942,35 @@
       <c r="D12" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F12" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H12" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I12" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J12" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K12" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L12" t="n" s="5">
-        <v>1.0</v>
+      <c r="E12" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="L12" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N12" t="s" s="5">
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -887,7 +978,7 @@
         <v>9.0</v>
       </c>
       <c r="B13" t="s" s="10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n" s="0">
         <v>2.0</v>
@@ -895,29 +986,35 @@
       <c r="D13" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E13" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F13" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="G13" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H13" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="I13" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J13" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="K13" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L13" t="n" s="6">
-        <v>-1.0</v>
+      <c r="E13" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="K13" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="M13" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N13" t="s" s="6">
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -925,7 +1022,7 @@
         <v>11.0</v>
       </c>
       <c r="B14" t="s" s="10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>2.0</v>
@@ -933,29 +1030,35 @@
       <c r="D14" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E14" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F14" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="G14" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H14" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="I14" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J14" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="K14" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L14" t="n" s="6">
-        <v>-1.0</v>
+      <c r="E14" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="K14" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="M14" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s" s="6">
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -963,7 +1066,7 @@
         <v>11.0</v>
       </c>
       <c r="B15" t="s" s="10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>0.0</v>
@@ -971,29 +1074,35 @@
       <c r="D15" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E15" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F15" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G15" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H15" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I15" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J15" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K15" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L15" t="n" s="5">
-        <v>0.5</v>
+      <c r="E15" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="K15" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="M15" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N15" t="s" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="16">
@@ -1001,7 +1110,7 @@
         <v>11.0</v>
       </c>
       <c r="B16" t="s" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" t="n" s="0">
         <v>0.0</v>
@@ -1009,29 +1118,35 @@
       <c r="D16" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E16" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F16" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G16" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H16" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I16" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J16" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K16" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L16" t="n" s="5">
-        <v>0.5</v>
+      <c r="E16" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="K16" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L16" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="M16" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N16" t="s" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -1039,7 +1154,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" t="s" s="11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n" s="0">
         <v>0.0</v>
@@ -1047,29 +1162,35 @@
       <c r="D17" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E17" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F17" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G17" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H17" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I17" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J17" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K17" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L17" t="n" s="5">
-        <v>0.5</v>
+      <c r="E17" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="K17" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="M17" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N17" t="s" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -1077,7 +1198,7 @@
         <v>15.0</v>
       </c>
       <c r="B18" t="s" s="11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n" s="0">
         <v>0.0</v>
@@ -1085,29 +1206,35 @@
       <c r="D18" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E18" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F18" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G18" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H18" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I18" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J18" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K18" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L18" t="n" s="5">
-        <v>0.5</v>
+      <c r="E18" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="K18" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="L18" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="M18" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N18" t="s" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="19">
@@ -1115,7 +1242,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" t="s" s="10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n" s="0">
         <v>0.0</v>
@@ -1123,29 +1250,35 @@
       <c r="D19" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="E19" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F19" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G19" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H19" t="n" s="5">
-        <v>0.5714285969734192</v>
-      </c>
-      <c r="I19" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J19" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K19" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L19" t="n" s="5">
-        <v>0.5714285969734192</v>
+      <c r="E19" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="K19" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N19" t="s" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -1153,7 +1286,7 @@
         <v>17.0</v>
       </c>
       <c r="B20" t="s" s="10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C20" t="n" s="0">
         <v>1.0</v>
@@ -1161,29 +1294,35 @@
       <c r="D20" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E20" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F20" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="G20" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H20" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="I20" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J20" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="K20" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L20" t="n" s="6">
-        <v>-1.0</v>
+      <c r="E20" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="K20" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N20" t="s" s="6">
+        <v>37</v>
       </c>
     </row>
     <row r="21">
@@ -1191,7 +1330,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" t="s" s="10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n" s="0">
         <v>1.0</v>
@@ -1199,29 +1338,35 @@
       <c r="D21" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E21" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F21" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="G21" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H21" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="I21" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J21" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="K21" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L21" t="n" s="6">
-        <v>-1.0</v>
+      <c r="E21" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="K21" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L21" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="M21" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N21" t="s" s="6">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -1229,7 +1374,7 @@
         <v>19.0</v>
       </c>
       <c r="B22" t="s" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n" s="0">
         <v>0.0</v>
@@ -1237,29 +1382,35 @@
       <c r="D22" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E22" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F22" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G22" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H22" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I22" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J22" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K22" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L22" t="n" s="5">
-        <v>0.5</v>
+      <c r="E22" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="J22" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="K22" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L22" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="M22" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N22" t="s" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="23">
@@ -1267,7 +1418,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" t="s" s="11">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n" s="0">
         <v>0.0</v>
@@ -1275,29 +1426,35 @@
       <c r="D23" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F23" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G23" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H23" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I23" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J23" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K23" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L23" t="n" s="5">
-        <v>0.5</v>
+      <c r="E23" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="L23" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="M23" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N23" t="s" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1305,7 +1462,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s" s="10">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n" s="0">
         <v>2.0</v>
@@ -1313,29 +1470,35 @@
       <c r="D24" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E24" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F24" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="G24" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H24" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="I24" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J24" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="K24" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L24" t="n" s="6">
-        <v>-1.0</v>
+      <c r="E24" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="J24" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="K24" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L24" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="M24" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N24" t="s" s="6">
+        <v>37</v>
       </c>
     </row>
     <row r="25">
@@ -1343,7 +1506,7 @@
         <v>25.0</v>
       </c>
       <c r="B25" t="s" s="11">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C25" t="n" s="0">
         <v>0.0</v>
@@ -1351,29 +1514,35 @@
       <c r="D25" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E25" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F25" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G25" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H25" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I25" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J25" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K25" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L25" t="n" s="5">
-        <v>0.5</v>
+      <c r="E25" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="L25" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="M25" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N25" t="s" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -1381,7 +1550,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s" s="11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n" s="0">
         <v>0.0</v>
@@ -1389,29 +1558,35 @@
       <c r="D26" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E26" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F26" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G26" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H26" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I26" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J26" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K26" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L26" t="n" s="5">
-        <v>0.5</v>
+      <c r="E26" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="K26" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="L26" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="M26" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N26" t="s" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="27">
@@ -1419,7 +1594,7 @@
         <v>27.0</v>
       </c>
       <c r="B27" t="s" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C27" t="n" s="0">
         <v>0.0</v>
@@ -1427,29 +1602,35 @@
       <c r="D27" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E27" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F27" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G27" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H27" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I27" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J27" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K27" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L27" t="n" s="5">
-        <v>0.5</v>
+      <c r="E27" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="J27" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="K27" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L27" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="M27" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N27" t="s" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="28">
@@ -1457,7 +1638,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n" s="0">
         <v>0.0</v>
@@ -1465,41 +1646,49 @@
       <c r="D28" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E28" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F28" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G28" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H28" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I28" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J28" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K28" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L28" t="n" s="5">
-        <v>0.5</v>
+      <c r="E28" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="J28" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="K28" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="L28" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="M28" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="N28" t="s" s="5">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
